--- a/自动化分析报告/category2_3.xlsx
+++ b/自动化分析报告/category2_3.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19845" windowHeight="7230"/>
+    <workbookView windowWidth="19875" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$207</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="137">
   <si>
     <t>二级分类名称</t>
   </si>
@@ -435,10 +435,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -462,8 +462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,6 +473,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,10 +509,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,23 +525,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,59 +533,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,9 +547,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -614,7 +614,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,169 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,6 +818,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -834,20 +849,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,177 +914,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1079,55 +1079,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1395,14 +1395,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E153"/>
+  <sheetPr/>
+  <dimension ref="A1:E207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
@@ -1411,7 +1411,7 @@
     <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="37.5" spans="1:5">
+    <row r="1" ht="33" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>credit_card-52</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>credit_card-53</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>credit_card-54</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>credit_card-55</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>credit_card-56</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1532,11 +1532,11 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f t="shared" ref="E7:E57" si="0">A7&amp;"-"&amp;C7</f>
+        <f t="shared" ref="E7:E70" si="0">A7&amp;"-"&amp;C7</f>
         <v>credit_card-20</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>credit_card-58</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>credit_card-59</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>credit_card-60</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>credit_card-62</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>credit_card-0</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>bank_budget-0</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:5">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>bank_budget-9</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:5">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>bank_budget-1</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>bank_budget-21</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:5">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>bank_budget-22</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:5">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>bank_budget-24</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:5">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>bank_budget-23</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:5">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>other_budget-41</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:5">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>other_budget-42</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:5">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>other_budget-1</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>other_budget-0</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:5">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>loan-1</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>loan-0</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>loan-9</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:5">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>loan-53</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:5">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>28</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>loan-54</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:5">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>loan-134</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>loan-138</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:5">
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>loan-135</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:5">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>28</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>loan-58</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:5">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>loan-59</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:5">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>loan-137</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:5">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>loan-140</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:5">
+    <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
         <v>28</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>loan-888</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:5">
+    <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>loan-141</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:5">
+    <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>invest-121</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:5">
+    <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
         <v>38</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>invest-123</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:5">
+    <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>38</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>invest-124</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:5">
+    <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>invest-125</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:5">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>38</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>invest-126</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:5">
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>38</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>invest-122</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:5">
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>38</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>invest-127</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:5">
+    <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
@@ -2282,53 +2282,53 @@
         <v>39</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>invest-1</v>
+        <v>invest-0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C50" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>business_insurance-0</v>
-      </c>
-    </row>
-    <row r="51" hidden="1" spans="1:5">
+        <v>invest-9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2">
-        <v>9</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>business_insurance-9</v>
-      </c>
-    </row>
-    <row r="52" hidden="1" spans="1:5">
+        <v>invest-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -2336,17 +2336,17 @@
         <v>47</v>
       </c>
       <c r="C52" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="E52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>business_insurance-31</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" spans="1:5">
+        <v>business_insurance-0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -2354,17 +2354,17 @@
         <v>47</v>
       </c>
       <c r="C53" s="2">
-        <v>32</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>business_insurance-32</v>
-      </c>
-    </row>
-    <row r="54" hidden="1" spans="1:5">
+        <v>business_insurance-9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
@@ -2372,17 +2372,17 @@
         <v>47</v>
       </c>
       <c r="C54" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>business_insurance-33</v>
-      </c>
-    </row>
-    <row r="55" hidden="1" spans="1:5">
+        <v>business_insurance-31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>46</v>
       </c>
@@ -2390,53 +2390,53 @@
         <v>47</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E55" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>business_insurance-1</v>
+        <v>business_insurance-32</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C56" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>gong_ji_jin-0</v>
-      </c>
-    </row>
-    <row r="57" hidden="1" spans="1:5">
+        <v>business_insurance-33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C57" s="2">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E57" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>gong_ji_jin-9</v>
-      </c>
-    </row>
-    <row r="58" hidden="1" spans="1:5">
+        <v>business_insurance-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>51</v>
       </c>
@@ -2444,17 +2444,17 @@
         <v>52</v>
       </c>
       <c r="C58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58" s="2" t="str">
-        <f t="shared" ref="E58:E77" si="1">A58&amp;"-"&amp;C58</f>
-        <v>gong_ji_jin-1</v>
-      </c>
-    </row>
-    <row r="59" hidden="1" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>gong_ji_jin-0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
         <v>51</v>
       </c>
@@ -2462,17 +2462,17 @@
         <v>52</v>
       </c>
       <c r="C59" s="2">
-        <v>15</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>gong_ji_jin-15</v>
-      </c>
-    </row>
-    <row r="60" hidden="1" spans="1:5">
+        <f t="shared" si="0"/>
+        <v>gong_ji_jin-9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
         <v>51</v>
       </c>
@@ -2480,53 +2480,53 @@
         <v>52</v>
       </c>
       <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>gong_ji_jin-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="2">
+        <v>15</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>gong_ji_jin-15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="2">
         <v>17</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>gong_ji_jin-17</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>she_bao-1</v>
-      </c>
-    </row>
-    <row r="62" hidden="1" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C62" s="2">
-        <v>15</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>she_bao-15</v>
-      </c>
-    </row>
-    <row r="63" hidden="1" spans="1:5">
+    <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
         <v>54</v>
       </c>
@@ -2534,400 +2534,400 @@
         <v>55</v>
       </c>
       <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>she_bao-0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="2">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>she_bao-9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>she_bao-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="2">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>she_bao-15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="2">
+        <v>17</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E63" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>she_bao-17</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:5">
-      <c r="A64" s="2" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yi_bao-0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="2">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>yi_bao-9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="2">
         <v>1</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="0"/>
         <v>yi_bao-1</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:5">
-      <c r="A65" s="2" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C71" s="2">
         <v>15</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E65" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E71" s="2" t="str">
+        <f>A71&amp;"-"&amp;C71</f>
         <v>yi_bao-15</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:5">
-      <c r="A66" s="2" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C72" s="2">
         <v>17</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E72" s="2" t="str">
+        <f>A72&amp;"-"&amp;C72</f>
         <v>yi_bao-17</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:5">
-      <c r="A67" s="2" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C73" s="2">
         <v>1</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E73" s="2" t="str">
+        <f>A73&amp;"-"&amp;C73</f>
         <v>car-1</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:5">
-      <c r="A68" s="2" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f>A74&amp;"-"&amp;C74</f>
+        <v>car-0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C75" s="2">
+        <v>9</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f>A75&amp;"-"&amp;C75</f>
+        <v>car-9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C76" s="2">
         <v>11</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E68" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="E76" s="2" t="str">
+        <f t="shared" ref="E76:E139" si="1">A76&amp;"-"&amp;C76</f>
         <v>car-11</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:5">
-      <c r="A69" s="2" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C77" s="2">
         <v>12</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="2" t="str">
+      <c r="E77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>car-12</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:5">
-      <c r="A70" s="2" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C78" s="2">
         <v>501</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="2" t="str">
+      <c r="E78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>car-501</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:5">
-      <c r="A71" s="2" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C79" s="2">
         <v>502</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E71" s="2" t="str">
+      <c r="E79" s="2" t="str">
         <f t="shared" si="1"/>
         <v>car-502</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:5">
-      <c r="A72" s="2" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C80" s="2">
         <v>11</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E72" s="2" t="str">
+      <c r="E80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>room-11</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:5">
-      <c r="A73" s="2" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C81" s="2">
         <v>12</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="2" t="str">
+      <c r="E81" s="2" t="str">
         <f t="shared" si="1"/>
         <v>room-12</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:5">
-      <c r="A74" s="2" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C82" s="2">
         <v>508</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="2" t="str">
+      <c r="E82" s="2" t="str">
         <f t="shared" si="1"/>
         <v>room-508</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:5">
-      <c r="A75" s="2" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>room-1</v>
-      </c>
-    </row>
-    <row r="76" hidden="1" spans="1:5">
-      <c r="A76" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="2">
-        <v>1</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>taxi-1</v>
-      </c>
-    </row>
-    <row r="77" hidden="1" spans="1:5">
-      <c r="A77" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="2">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>taxi-6</v>
-      </c>
-    </row>
-    <row r="78" hidden="1" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="2">
-        <v>7</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E78" s="2" t="str">
-        <f t="shared" ref="E78:E141" si="2">A78&amp;"-"&amp;C78</f>
-        <v>taxi-7</v>
-      </c>
-    </row>
-    <row r="79" hidden="1" spans="1:5">
-      <c r="A79" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="2">
-        <v>41</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>taxi-41</v>
-      </c>
-    </row>
-    <row r="80" hidden="1" spans="1:5">
-      <c r="A80" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="2">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>taxi-8</v>
-      </c>
-    </row>
-    <row r="81" hidden="1" spans="1:5">
-      <c r="A81" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>train-1</v>
-      </c>
-    </row>
-    <row r="82" hidden="1" spans="1:5">
-      <c r="A82" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="2">
-        <v>5</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>train-5</v>
-      </c>
-    </row>
-    <row r="83" hidden="1" spans="1:5">
-      <c r="A83" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C83" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="E83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>train-6</v>
-      </c>
-    </row>
-    <row r="84" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>room-0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C84" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>train-7</v>
-      </c>
-    </row>
-    <row r="85" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>room-9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
@@ -2936,214 +2936,214 @@
         <v>19</v>
       </c>
       <c r="E85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>airplane-1</v>
-      </c>
-    </row>
-    <row r="86" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>room-1</v>
+      </c>
+    </row>
+    <row r="86" ht="14" customHeight="1" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>taxi-1</v>
+      </c>
+    </row>
+    <row r="87" ht="14" customHeight="1" spans="1:5">
+      <c r="A87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>taxi-0</v>
+      </c>
+    </row>
+    <row r="88" ht="14" customHeight="1" spans="1:5">
+      <c r="A88" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="2">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>taxi-9</v>
+      </c>
+    </row>
+    <row r="89" ht="14" customHeight="1" spans="1:5">
+      <c r="A89" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" s="2">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>taxi-6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="2">
+        <v>7</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>taxi-7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="2">
+        <v>41</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>taxi-41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C92" s="2">
+        <v>8</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>taxi-8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>train-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>train-0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" s="2">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>train-9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>airplane-2</v>
-      </c>
-    </row>
-    <row r="87" hidden="1" spans="1:5">
-      <c r="A87" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C87" s="2">
-        <v>6</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>airplane-6</v>
-      </c>
-    </row>
-    <row r="88" hidden="1" spans="1:5">
-      <c r="A88" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C88" s="2">
-        <v>7</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>airplane-7</v>
-      </c>
-    </row>
-    <row r="89" hidden="1" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>hotel-1</v>
-      </c>
-    </row>
-    <row r="90" hidden="1" spans="1:5">
-      <c r="A90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="2">
-        <v>25</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E90" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>hotel-25</v>
-      </c>
-    </row>
-    <row r="91" hidden="1" spans="1:5">
-      <c r="A91" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="2">
-        <v>27</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>hotel-27</v>
-      </c>
-    </row>
-    <row r="92" hidden="1" spans="1:5">
-      <c r="A92" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="2">
-        <v>6</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>hotel-6</v>
-      </c>
-    </row>
-    <row r="93" hidden="1" spans="1:5">
-      <c r="A93" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="2">
-        <v>7</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>hotel-7</v>
-      </c>
-    </row>
-    <row r="94" hidden="1" spans="1:5">
-      <c r="A94" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>renting-1</v>
-      </c>
-    </row>
-    <row r="95" hidden="1" spans="1:5">
-      <c r="A95" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="2">
-        <v>151</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>renting-151</v>
-      </c>
-    </row>
-    <row r="96" hidden="1" spans="1:5">
-      <c r="A96" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="2">
-        <v>156</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E96" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>renting-156</v>
-      </c>
-    </row>
-    <row r="97" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>train-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C97" s="2">
         <v>6</v>
@@ -3152,16 +3152,16 @@
         <v>73</v>
       </c>
       <c r="E97" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>renting-6</v>
-      </c>
-    </row>
-    <row r="98" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>train-6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2">
         <v>7</v>
@@ -3170,214 +3170,214 @@
         <v>74</v>
       </c>
       <c r="E98" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>renting-7</v>
-      </c>
-    </row>
-    <row r="99" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>train-7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C99" s="2">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E99" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>renting-152</v>
-      </c>
-    </row>
-    <row r="100" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>airplane-1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C100" s="2">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>airplane-0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" s="2">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>airplane-9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>airplane-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="2">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>airplane-6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="2">
+        <v>7</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>airplane-7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" s="2">
         <v>1</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>express-1</v>
-      </c>
-    </row>
-    <row r="101" hidden="1" spans="1:5">
-      <c r="A101" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="2">
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>hotel-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E101" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>express-81</v>
-      </c>
-    </row>
-    <row r="102" hidden="1" spans="1:5">
-      <c r="A102" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" s="2">
+      <c r="B106" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E102" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>express-82</v>
-      </c>
-    </row>
-    <row r="103" hidden="1" spans="1:5">
-      <c r="A103" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="2">
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>hotel-0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="2">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>hotel-9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="2">
+        <v>25</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E103" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>express-83</v>
-      </c>
-    </row>
-    <row r="104" hidden="1" spans="1:5">
-      <c r="A104" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C104" s="2">
-        <v>6</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E104" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>express-6</v>
-      </c>
-    </row>
-    <row r="105" hidden="1" spans="1:5">
-      <c r="A105" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C105" s="2">
-        <v>7</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E105" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>express-7</v>
-      </c>
-    </row>
-    <row r="106" hidden="1" spans="1:5">
-      <c r="A106" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C106" s="2">
-        <v>1</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>edu_pay-1</v>
-      </c>
-    </row>
-    <row r="107" hidden="1" spans="1:5">
-      <c r="A107" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C107" s="2">
-        <v>6</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E107" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>edu_pay-6</v>
-      </c>
-    </row>
-    <row r="108" hidden="1" spans="1:5">
-      <c r="A108" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C108" s="2">
-        <v>7</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E108" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>edu_pay-7</v>
-      </c>
-    </row>
-    <row r="109" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>hotel-25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C109" s="2">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="E109" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>edu_school-71</v>
-      </c>
-    </row>
-    <row r="110" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>hotel-27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C110" s="2">
         <v>6</v>
@@ -3386,16 +3386,16 @@
         <v>73</v>
       </c>
       <c r="E110" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>medical-6</v>
-      </c>
-    </row>
-    <row r="111" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>hotel-6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C111" s="2">
         <v>7</v>
@@ -3404,16 +3404,16 @@
         <v>74</v>
       </c>
       <c r="E111" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>medical-7</v>
-      </c>
-    </row>
-    <row r="112" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>hotel-7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2">
         <v>1</v>
@@ -3422,88 +3422,88 @@
         <v>19</v>
       </c>
       <c r="E112" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>medical-1</v>
-      </c>
-    </row>
-    <row r="113" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>renting-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C113" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E113" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>yys-15</v>
-      </c>
-    </row>
-    <row r="114" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>renting-0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C114" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="E114" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>yys-16</v>
-      </c>
-    </row>
-    <row r="115" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>renting-9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C115" s="2">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E115" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>yys-1</v>
-      </c>
-    </row>
-    <row r="116" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>renting-151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C116" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E116" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>yys-20</v>
-      </c>
-    </row>
-    <row r="117" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>renting-156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C117" s="2">
         <v>6</v>
@@ -3512,16 +3512,16 @@
         <v>73</v>
       </c>
       <c r="E117" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>restaurant-6</v>
-      </c>
-    </row>
-    <row r="118" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>renting-6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C118" s="2">
         <v>7</v>
@@ -3530,142 +3530,142 @@
         <v>74</v>
       </c>
       <c r="E118" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>restaurant-7</v>
-      </c>
-    </row>
-    <row r="119" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>renting-7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C119" s="2">
+        <v>152</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>renting-152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" s="2">
         <v>1</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E119" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>restaurant-1</v>
-      </c>
-    </row>
-    <row r="120" hidden="1" spans="1:5">
-      <c r="A120" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120" s="2">
-        <v>6</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E120" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>takeoutfood-6</v>
-      </c>
-    </row>
-    <row r="121" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>express-1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C121" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="E121" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>takeoutfood-7</v>
-      </c>
-    </row>
-    <row r="122" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>express-0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C122" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E122" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>takeoutfood-1</v>
-      </c>
-    </row>
-    <row r="123" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>express-9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C123" s="2">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E123" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>takeoutfood-87</v>
-      </c>
-    </row>
-    <row r="124" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>express-81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C124" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="E124" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>takeoutfood-86</v>
-      </c>
-    </row>
-    <row r="125" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>express-82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C125" s="2">
-        <v>508</v>
+        <v>83</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E125" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>takeoutfood-508</v>
-      </c>
-    </row>
-    <row r="126" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>express-83</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C126" s="2">
         <v>6</v>
@@ -3674,16 +3674,16 @@
         <v>73</v>
       </c>
       <c r="E126" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>onlineshopping-6</v>
-      </c>
-    </row>
-    <row r="127" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>express-6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C127" s="2">
         <v>7</v>
@@ -3692,16 +3692,16 @@
         <v>74</v>
       </c>
       <c r="E127" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>onlineshopping-7</v>
-      </c>
-    </row>
-    <row r="128" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>express-7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C128" s="2">
         <v>1</v>
@@ -3710,232 +3710,232 @@
         <v>19</v>
       </c>
       <c r="E128" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>onlineshopping-1</v>
-      </c>
-    </row>
-    <row r="129" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>edu_pay-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>edu_pay-0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="2">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>edu_pay-9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131" s="2">
         <v>6</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E129" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>live-6</v>
-      </c>
-    </row>
-    <row r="130" hidden="1" spans="1:5">
-      <c r="A130" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C130" s="2">
+      <c r="E131" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>edu_pay-6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="2">
         <v>7</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E130" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>live-7</v>
-      </c>
-    </row>
-    <row r="131" hidden="1" spans="1:5">
-      <c r="A131" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="2">
+      <c r="E132" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>edu_pay-7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" s="2">
+        <v>71</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>edu_school-71</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C134" s="2">
+        <v>6</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E134" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>medical-6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E135" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>medical-7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>medical-0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C137" s="2">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>medical-9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138" s="2">
         <v>1</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D138" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>live-1</v>
-      </c>
-    </row>
-    <row r="132" hidden="1" spans="1:5">
-      <c r="A132" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C132" s="2">
-        <v>1</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E132" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>games-1</v>
-      </c>
-    </row>
-    <row r="133" hidden="1" spans="1:5">
-      <c r="A133" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C133" s="2">
-        <v>6</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E133" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>games-6</v>
-      </c>
-    </row>
-    <row r="134" hidden="1" spans="1:5">
-      <c r="A134" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C134" s="2">
-        <v>7</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E134" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>games-7</v>
-      </c>
-    </row>
-    <row r="135" hidden="1" spans="1:5">
-      <c r="A135" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C135" s="2">
-        <v>6</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E135" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>motion-6</v>
-      </c>
-    </row>
-    <row r="136" hidden="1" spans="1:5">
-      <c r="A136" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C136" s="2">
-        <v>7</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E136" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>motion-7</v>
-      </c>
-    </row>
-    <row r="137" hidden="1" spans="1:5">
-      <c r="A137" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>motion-1</v>
-      </c>
-    </row>
-    <row r="138" hidden="1" spans="1:5">
-      <c r="A138" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C138" s="2">
-        <v>6</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E138" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tourism-6</v>
-      </c>
-    </row>
-    <row r="139" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>medical-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C139" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E139" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tourism-7</v>
-      </c>
-    </row>
-    <row r="140" hidden="1" spans="1:5">
+        <f t="shared" si="1"/>
+        <v>yys-15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C140" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E140" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>tourism-1</v>
-      </c>
-    </row>
-    <row r="141" hidden="1" spans="1:5">
+        <f t="shared" ref="E140:E203" si="2">A140&amp;"-"&amp;C140</f>
+        <v>yys-16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C141" s="2">
         <v>1</v>
@@ -3945,105 +3945,105 @@
       </c>
       <c r="E141" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>chat-1</v>
-      </c>
-    </row>
-    <row r="142" hidden="1" spans="1:5">
+        <v>yys-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C142" s="2">
+        <v>0</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>yys-0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" s="2">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>yys-9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" s="2">
+        <v>20</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>yys-20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C145" s="2">
         <v>6</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D145" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E142" s="2" t="str">
-        <f t="shared" ref="E142:E153" si="3">A142&amp;"-"&amp;C142</f>
-        <v>chat-6</v>
-      </c>
-    </row>
-    <row r="143" hidden="1" spans="1:5">
-      <c r="A143" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C143" s="2">
+      <c r="E145" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>restaurant-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C146" s="2">
         <v>7</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E143" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>chat-7</v>
-      </c>
-    </row>
-    <row r="144" hidden="1" spans="1:5">
-      <c r="A144" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C144" s="2">
-        <v>6</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E144" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>mother-6</v>
-      </c>
-    </row>
-    <row r="145" hidden="1" spans="1:5">
-      <c r="A145" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C145" s="2">
-        <v>7</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E145" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>mother-7</v>
-      </c>
-    </row>
-    <row r="146" hidden="1" spans="1:5">
-      <c r="A146" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C146" s="2">
-        <v>1</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E146" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>mother-1</v>
+        <f t="shared" si="2"/>
+        <v>restaurant-7</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -4052,34 +4052,34 @@
         <v>18</v>
       </c>
       <c r="E147" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>report-0</v>
-      </c>
-    </row>
-    <row r="148" hidden="1" spans="1:5">
+        <f t="shared" si="2"/>
+        <v>restaurant-0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C148" s="2">
         <v>9</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E148" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>report-9</v>
-      </c>
-    </row>
-    <row r="149" hidden="1" spans="1:5">
+        <f t="shared" si="2"/>
+        <v>restaurant-9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C149" s="2">
         <v>1</v>
@@ -4088,52 +4088,52 @@
         <v>19</v>
       </c>
       <c r="E149" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>report-1</v>
-      </c>
-    </row>
-    <row r="150" hidden="1" spans="1:5">
+        <f t="shared" si="2"/>
+        <v>restaurant-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C150" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E150" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>report-5</v>
-      </c>
-    </row>
-    <row r="151" hidden="1" spans="1:5">
+        <f t="shared" si="2"/>
+        <v>takeoutfood-6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C151" s="2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E151" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>law-29</v>
-      </c>
-    </row>
-    <row r="152" hidden="1" spans="1:5">
+        <f t="shared" si="2"/>
+        <v>takeoutfood-7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C152" s="2">
         <v>1</v>
@@ -4142,35 +4142,1002 @@
         <v>19</v>
       </c>
       <c r="E152" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
+        <v>takeoutfood-1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C153" s="2">
+        <v>87</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>takeoutfood-87</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>takeoutfood-0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C155" s="2">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>takeoutfood-9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C156" s="2">
+        <v>86</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E156" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>takeoutfood-86</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C157" s="2">
+        <v>508</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E157" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>takeoutfood-508</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C158" s="2">
+        <v>6</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E158" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>onlineshopping-6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C159" s="2">
+        <v>7</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>onlineshopping-7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>onlineshopping-0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C161" s="2">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>onlineshopping-9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>onlineshopping-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C163" s="2">
+        <v>6</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E163" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>live-6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C164" s="2">
+        <v>7</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E164" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>live-7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E165" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>live-0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" s="2">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>live-9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>live-1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>games-1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C169" s="2">
+        <v>6</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E169" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>games-6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C170" s="2">
+        <v>7</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E170" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>games-7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E171" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>games-0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C172" s="2">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>games-9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C173" s="2">
+        <v>6</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E173" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>motion-6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" s="2">
+        <v>7</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E174" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>motion-7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E175" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>motion-0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C176" s="2">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>motion-9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>motion-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C178" s="2">
+        <v>6</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E178" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tourism-6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C179" s="2">
+        <v>7</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E179" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tourism-7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E180" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tourism-0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C181" s="2">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tourism-9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E182" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>tourism-1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>chat-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C184" s="2">
+        <v>6</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>chat-6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E185" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>chat-0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C186" s="2">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>chat-9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C187" s="2">
+        <v>7</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E187" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>chat-7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C188" s="2">
+        <v>6</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E188" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mother-6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C189" s="2">
+        <v>7</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E189" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mother-7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E190" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mother-0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C191" s="2">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mother-9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>mother-1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C193" s="2">
+        <v>0</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>report-0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C194" s="2">
+        <v>9</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>report-9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>report-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C196" s="2">
+        <v>5</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E196" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>report-5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C197" s="2">
+        <v>0</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E197" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>report-0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C198" s="2">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>report-9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C199" s="2">
+        <v>29</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E199" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>law-29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C200" s="2">
+        <v>0</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>law-0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C201" s="2">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>law-9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C202" s="2">
+        <v>0</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202" s="2" t="str">
+        <f>A202&amp;"-"&amp;C202</f>
+        <v>recruit-0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C203" s="2">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="2" t="str">
+        <f>A203&amp;"-"&amp;C203</f>
+        <v>recruit-9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" s="2" t="str">
+        <f>A204&amp;"-"&amp;C204</f>
         <v>recruit-1</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:5">
-      <c r="A153" s="2" t="s">
+    <row r="205" spans="1:5">
+      <c r="A205" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B205" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205" s="2" t="str">
+        <f>A205&amp;"-"&amp;C205</f>
+        <v>government-0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C206" s="2">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="2" t="str">
+        <f>A206&amp;"-"&amp;C206</f>
+        <v>government-9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C207" s="2">
         <v>111</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D207" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E153" s="2" t="str">
-        <f t="shared" si="3"/>
+      <c r="E207" s="2" t="str">
+        <f>A207&amp;"-"&amp;C207</f>
         <v>government-111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E153">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="equal" val="0"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:E207">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
